--- a/Excel Files/Gastro_Majorca_2008.xlsx
+++ b/Excel Files/Gastro_Majorca_2008.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joceline Lega\Box Sync\DyMSiM\One- or Two-Parabola Models\ms\EpiGro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Joceline Lega\Documents\GitHub\EpiGro\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Reported Cases</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>Gastroenteritis, Majorca (2008)</t>
-  </si>
-  <si>
-    <t>Figure 1</t>
   </si>
 </sst>
 </file>
@@ -683,11 +680,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1714234144"/>
-        <c:axId val="1714236864"/>
+        <c:axId val="-1709482800"/>
+        <c:axId val="-1709477360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1714234144"/>
+        <c:axId val="-1709482800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -744,12 +741,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1714236864"/>
+        <c:crossAx val="-1709477360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1714236864"/>
+        <c:axId val="-1709477360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -800,7 +797,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1714234144"/>
+        <c:crossAx val="-1709482800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1132,11 +1129,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="1714246112"/>
-        <c:axId val="1714241216"/>
+        <c:axId val="-1709489872"/>
+        <c:axId val="-1709483344"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="1714246112"/>
+        <c:axId val="-1709489872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1146,14 +1143,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1714241216"/>
+        <c:crossAx val="-1709483344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1714241216"/>
+        <c:axId val="-1709483344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1163,7 +1160,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1714246112"/>
+        <c:crossAx val="-1709489872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1785,16 +1782,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>603251</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>12701</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2538,7 +2535,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7.5795610080957649</v>
+        <v>7.5470008957129373</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -2866,7 +2863,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2897,9 +2894,6 @@
       </c>
       <c r="B3">
         <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
